--- a/JiuZhangAlgorithm2020/2020秋招-FLAMG面试频率最高的127道题.xlsx
+++ b/JiuZhangAlgorithm2020/2020秋招-FLAMG面试频率最高的127道题.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maitaoguo/Desktop/Code_Learning/Algorithm/JiuZhangAlgorithm2020/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DCD6E-BE26-2346-94A9-E9ABC2FB4FED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,70 +745,58 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="14"/>
@@ -811,156 +805,45 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,194 +856,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1246,255 +943,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1504,32 +962,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1537,128 +1070,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFFFF"/>
-      <color rgb="009BC2E6"/>
-      <color rgb="00305496"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9BC2E6"/>
+      <color rgb="FF305496"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1674,13 +1113,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="面试高频题冲刺-礼包图_手机海报_2020-08-18-0"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="面试高频题冲刺-礼包图_手机海报_2020-08-18-0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1952,1401 +1397,1401 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.87962962962963" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="11.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="5" max="5" width="107.62962962963" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="5" max="5" width="107.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="41" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="17.4" spans="1:5">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="19">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="17.4" spans="1:5">
+    <row r="3" spans="1:5" ht="19">
       <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="17.4" spans="1:5">
+    <row r="4" spans="1:5" ht="19">
       <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="17.4" spans="1:5">
+    <row r="5" spans="1:5" ht="19">
       <c r="A5" s="2"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="17.4" spans="1:5">
+    <row r="6" spans="1:5" ht="19">
       <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="17.4" spans="1:5">
+    <row r="7" spans="1:5" ht="19">
       <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="17.4" spans="1:5">
+    <row r="8" spans="1:5" ht="19">
       <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="17.4" spans="1:5">
+    <row r="9" spans="1:5" ht="19">
       <c r="A9" s="2"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="17.4" spans="2:5">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:5" ht="17">
+      <c r="B10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="17.4" spans="2:5">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="20" t="s">
+    <row r="11" spans="1:5" ht="19">
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="17.4" spans="2:5">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18" t="s">
+    <row r="12" spans="1:5" ht="17">
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="17.4" spans="2:5">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="22" t="s">
+    <row r="13" spans="1:5" ht="17">
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="17.4" spans="2:5">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="22" t="s">
+    <row r="14" spans="1:5" ht="17">
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="17.4" spans="2:5">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
+    <row r="15" spans="1:5" ht="17">
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="17.4" spans="2:5">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="22" t="s">
+    <row r="16" spans="1:5" ht="17">
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="17.4" spans="2:5">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="22" t="s">
+    <row r="17" spans="2:5" ht="17">
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" ht="17.4" spans="2:5">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18" t="s">
+    <row r="18" spans="2:5" ht="17">
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" ht="17.4" spans="2:5">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18" t="s">
+    <row r="19" spans="2:5" ht="17">
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" ht="17.4" spans="2:5">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+    <row r="20" spans="2:5" ht="17">
+      <c r="B20" s="30"/>
+      <c r="C20" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="17.4" spans="2:5">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="22" t="s">
+    <row r="21" spans="2:5" ht="17">
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" ht="17.4" spans="2:5">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+    <row r="22" spans="2:5" ht="17">
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" ht="17.4" spans="2:5">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="22" t="s">
+    <row r="23" spans="2:5" ht="17">
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" ht="17.4" spans="2:5">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="22" t="s">
+    <row r="24" spans="2:5" ht="17">
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" ht="17.4" spans="2:5">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18" t="s">
+    <row r="25" spans="2:5" ht="17">
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" ht="17.4" spans="2:5">
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="22" t="s">
+    <row r="26" spans="2:5" ht="17">
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" ht="17.4" spans="2:5">
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="22" t="s">
+    <row r="27" spans="2:5" ht="17">
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="17.4" spans="2:5">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="22" t="s">
+    <row r="28" spans="2:5" ht="17">
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" ht="17.4" spans="2:5">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="22" t="s">
+    <row r="29" spans="2:5" ht="17">
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" ht="17.4" spans="2:5">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17" t="s">
+    <row r="30" spans="2:5" ht="17">
+      <c r="B30" s="30"/>
+      <c r="C30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" ht="17.4" spans="2:5">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="22" t="s">
+    <row r="31" spans="2:5" ht="17">
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" ht="17.4" spans="2:5">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18" t="s">
+    <row r="32" spans="2:5" ht="17">
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" ht="17.4" spans="2:5">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18" t="s">
+    <row r="33" spans="2:5" ht="17">
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" ht="17.4" spans="2:5">
-      <c r="B34" s="16"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="18" t="s">
+    <row r="34" spans="2:5" ht="17">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" ht="17.4" spans="2:5">
-      <c r="B35" s="24" t="s">
+    <row r="35" spans="2:5" ht="19">
+      <c r="B35" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" ht="17.4" spans="2:5">
-      <c r="B36" s="24"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28" t="s">
+    <row r="36" spans="2:5" ht="17">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" ht="17.4" spans="2:5">
-      <c r="B37" s="24"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28" t="s">
+    <row r="37" spans="2:5" ht="17">
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" ht="17.4" spans="2:5">
-      <c r="B38" s="24"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28" t="s">
+    <row r="38" spans="2:5" ht="17">
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" ht="17.4" spans="2:5">
-      <c r="B39" s="24"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28" t="s">
+    <row r="39" spans="2:5" ht="17">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" ht="17.4" spans="2:5">
-      <c r="B40" s="24"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28" t="s">
+    <row r="40" spans="2:5" ht="17">
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" ht="17.4" spans="2:5">
-      <c r="B41" s="24"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28" t="s">
+    <row r="41" spans="2:5" ht="17">
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" ht="17.4" spans="2:5">
-      <c r="B42" s="24"/>
-      <c r="C42" s="27" t="s">
+    <row r="42" spans="2:5" ht="17">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" ht="17.4" spans="2:5">
-      <c r="B43" s="24"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28" t="s">
+    <row r="43" spans="2:5" ht="17">
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" ht="17.4" spans="2:5">
-      <c r="B44" s="24"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28" t="s">
+    <row r="44" spans="2:5" ht="17">
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" ht="17.4" spans="2:5">
-      <c r="B45" s="24"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28" t="s">
+    <row r="45" spans="2:5" ht="17">
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" ht="17.4" spans="2:5">
-      <c r="B46" s="24"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28" t="s">
+    <row r="46" spans="2:5" ht="17">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" ht="17.4" spans="2:5">
-      <c r="B47" s="24"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28" t="s">
+    <row r="47" spans="2:5" ht="17">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" ht="17.4" spans="2:5">
-      <c r="B48" s="24"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28" t="s">
+    <row r="48" spans="2:5" ht="17">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" ht="17.4" spans="2:5">
-      <c r="B49" s="24"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28" t="s">
+    <row r="49" spans="1:5" ht="17">
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" ht="17.4" spans="2:5">
-      <c r="B50" s="24"/>
-      <c r="C50" s="27" t="s">
+    <row r="50" spans="1:5" ht="17">
+      <c r="B50" s="36"/>
+      <c r="C50" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" ht="17.4" spans="2:5">
-      <c r="B51" s="24"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28" t="s">
+    <row r="51" spans="1:5" ht="17">
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" ht="17.4" spans="2:5">
-      <c r="B52" s="24"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28" t="s">
+    <row r="52" spans="1:5" ht="17">
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" ht="17.4" spans="2:5">
-      <c r="B53" s="24"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28" t="s">
+    <row r="53" spans="1:5" ht="17">
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" ht="17.4" spans="2:5">
-      <c r="B54" s="24"/>
-      <c r="C54" s="29" t="s">
+    <row r="54" spans="1:5" ht="19">
+      <c r="B54" s="36"/>
+      <c r="C54" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" ht="17.4" spans="1:5">
+    <row r="55" spans="1:5" ht="19">
       <c r="A55" s="2"/>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" ht="17.4" spans="1:5">
+    <row r="56" spans="1:5" ht="17">
       <c r="A56" s="2"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18" t="s">
+      <c r="B56" s="30"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" ht="17.4" spans="1:5">
+    <row r="57" spans="1:5" ht="17">
       <c r="A57" s="2"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18" t="s">
+      <c r="B57" s="30"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" ht="17.4" spans="1:5">
+    <row r="58" spans="1:5" ht="17">
       <c r="A58" s="2"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="18" t="s">
+      <c r="B58" s="30"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="17">
       <c r="A59" s="2"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="17.4" spans="1:5">
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="17">
       <c r="A60" s="2"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="22" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61" ht="17.4" spans="1:5">
+    <row r="61" spans="1:5" ht="17">
       <c r="A61" s="2"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="22" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62" ht="17.4" spans="1:5">
+    <row r="62" spans="1:5" ht="17">
       <c r="A62" s="2"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="22" t="s">
+      <c r="B62" s="30"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" ht="17.4" spans="1:5">
+    <row r="63" spans="1:5" ht="17">
       <c r="A63" s="2"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="22" t="s">
+      <c r="B63" s="30"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" ht="17.4" spans="1:5">
+    <row r="64" spans="1:5" ht="17">
       <c r="A64" s="2"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="22" t="s">
+      <c r="B64" s="30"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" ht="17.4" spans="1:5">
+    <row r="65" spans="1:5" ht="17">
       <c r="A65" s="2"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17" t="s">
+      <c r="B65" s="30"/>
+      <c r="C65" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" ht="17.4" spans="1:5">
+    <row r="66" spans="1:5" ht="17">
       <c r="A66" s="2"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="22" t="s">
+      <c r="B66" s="30"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" ht="17.4" spans="1:5">
+    <row r="67" spans="1:5" ht="17">
       <c r="A67" s="2"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="18" t="s">
+      <c r="B67" s="30"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" ht="17.4" spans="1:5">
+    <row r="68" spans="1:5" ht="17">
       <c r="A68" s="2"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="22" t="s">
+      <c r="B68" s="30"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" ht="18" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5" ht="18" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="22" t="s">
+      <c r="B69" s="30"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" ht="18" customHeight="1" spans="1:5">
+    <row r="70" spans="1:5" ht="18" customHeight="1">
       <c r="A70" s="2"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18" t="s">
+      <c r="B70" s="30"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" ht="18" customHeight="1" spans="1:5">
+    <row r="71" spans="1:5" ht="18" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="22" t="s">
+      <c r="B71" s="30"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" ht="18" customHeight="1" spans="1:5">
+    <row r="72" spans="1:5" ht="18" customHeight="1">
       <c r="A72" s="2"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="22" t="s">
+      <c r="B72" s="30"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" ht="18" customHeight="1" spans="1:5">
+    <row r="73" spans="1:5" ht="18" customHeight="1">
       <c r="A73" s="2"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="22" t="s">
+      <c r="B73" s="30"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" ht="18" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="18" customHeight="1">
       <c r="A74" s="2"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="22" t="s">
+      <c r="B74" s="30"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" ht="18" customHeight="1" spans="1:5">
+    <row r="75" spans="1:5" ht="18" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17" t="s">
+      <c r="B75" s="30"/>
+      <c r="C75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" ht="18" customHeight="1" spans="1:5">
+    <row r="76" spans="1:5" ht="18" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="22" t="s">
+      <c r="B76" s="30"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" ht="18" customHeight="1" spans="1:5">
+    <row r="77" spans="1:5" ht="18" customHeight="1">
       <c r="A77" s="2"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18" t="s">
+      <c r="B77" s="30"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" ht="18" customHeight="1" spans="1:5">
+    <row r="78" spans="1:5" ht="18" customHeight="1">
       <c r="A78" s="2"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="18" t="s">
+      <c r="B78" s="30"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="79" ht="18" customHeight="1" spans="1:5">
+    <row r="79" spans="1:5" ht="18" customHeight="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="18" t="s">
+      <c r="B79" s="30"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" ht="18" customHeight="1" spans="1:5">
+    <row r="80" spans="1:5" ht="18" customHeight="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" ht="17.4" spans="2:5">
-      <c r="B81" s="16"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="20" t="s">
+    <row r="81" spans="2:5" ht="19">
+      <c r="B81" s="30"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82" ht="17.4" spans="2:5">
-      <c r="B82" s="16"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="18" t="s">
+    <row r="82" spans="2:5" ht="17">
+      <c r="B82" s="30"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="83" ht="17.4" spans="2:5">
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="18" t="s">
+    <row r="83" spans="2:5" ht="17">
+      <c r="B83" s="30"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" ht="17.4" spans="2:5">
-      <c r="B84" s="16"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="18" t="s">
+    <row r="84" spans="2:5" ht="17">
+      <c r="B84" s="30"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="85" ht="17.4" spans="2:5">
-      <c r="B85" s="16"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="18" t="s">
+    <row r="85" spans="2:5" ht="17">
+      <c r="B85" s="30"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="86" ht="17.4" spans="2:5">
-      <c r="B86" s="16"/>
-      <c r="C86" s="17" t="s">
+    <row r="86" spans="2:5" ht="17">
+      <c r="B86" s="30"/>
+      <c r="C86" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="87" ht="17.4" spans="2:5">
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="22" t="s">
+    <row r="87" spans="2:5" ht="17">
+      <c r="B87" s="30"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="88" ht="17.4" spans="2:5">
-      <c r="B88" s="16"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="18" t="s">
+    <row r="88" spans="2:5" ht="17">
+      <c r="B88" s="30"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" ht="17.4" spans="2:5">
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="22" t="s">
+    <row r="89" spans="2:5" ht="17">
+      <c r="B89" s="30"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="90" ht="17.4" spans="2:5">
-      <c r="B90" s="16"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="22" t="s">
+    <row r="90" spans="2:5" ht="17">
+      <c r="B90" s="30"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91" ht="17.4" spans="2:5">
-      <c r="B91" s="16"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="18" t="s">
+    <row r="91" spans="2:5" ht="17">
+      <c r="B91" s="30"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" ht="17.4" spans="2:5">
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="22" t="s">
+    <row r="92" spans="2:5" ht="17">
+      <c r="B92" s="30"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" ht="17.4" spans="2:5">
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="22" t="s">
+    <row r="93" spans="2:5" ht="17">
+      <c r="B93" s="30"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="94" ht="17.4" spans="2:5">
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="22" t="s">
+    <row r="94" spans="2:5" ht="17">
+      <c r="B94" s="30"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="95" ht="17.4" spans="2:5">
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="22" t="s">
+    <row r="95" spans="2:5" ht="17">
+      <c r="B95" s="30"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="96" ht="17.4" spans="2:5">
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="22" t="s">
+    <row r="96" spans="2:5" ht="17">
+      <c r="B96" s="30"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" ht="17.4" spans="2:5">
-      <c r="B97" s="16"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="22" t="s">
+    <row r="97" spans="2:5" ht="17">
+      <c r="B97" s="30"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="98" ht="17.4" spans="2:5">
-      <c r="B98" s="16"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="18" t="s">
+    <row r="98" spans="2:5" ht="17">
+      <c r="B98" s="30"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="99" ht="17.4" spans="2:5">
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="18" t="s">
+    <row r="99" spans="2:5" ht="17">
+      <c r="B99" s="30"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" ht="17.4" spans="2:5">
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="18" t="s">
+    <row r="100" spans="2:5" ht="17">
+      <c r="B100" s="30"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" ht="17.4" spans="2:5">
-      <c r="B101" s="16"/>
-      <c r="C101" s="17" t="s">
+    <row r="101" spans="2:5" ht="17">
+      <c r="B101" s="30"/>
+      <c r="C101" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" ht="17.4" spans="2:5">
-      <c r="B102" s="16"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="22" t="s">
+    <row r="102" spans="2:5" ht="17">
+      <c r="B102" s="30"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="103" ht="17.4" spans="2:5">
-      <c r="B103" s="16"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="18" t="s">
+    <row r="103" spans="2:5" ht="17">
+      <c r="B103" s="30"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104" ht="17.4" spans="2:5">
-      <c r="B104" s="16"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="18" t="s">
+    <row r="104" spans="2:5" ht="17">
+      <c r="B104" s="30"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E104" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="105" ht="17.4" spans="2:5">
-      <c r="B105" s="16" t="s">
+    <row r="105" spans="2:5" ht="17">
+      <c r="B105" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="106" ht="17.4" spans="2:5">
-      <c r="B106" s="16"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="20" t="s">
+    <row r="106" spans="2:5" ht="19">
+      <c r="B106" s="30"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" ht="17.4" spans="2:5">
-      <c r="B107" s="16"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="18" t="s">
+    <row r="107" spans="2:5" ht="17">
+      <c r="B107" s="30"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108" ht="17.4" spans="2:5">
-      <c r="B108" s="16"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="22" t="s">
+    <row r="108" spans="2:5" ht="17">
+      <c r="B108" s="30"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="109" ht="17.4" spans="2:5">
-      <c r="B109" s="16"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="22" t="s">
+    <row r="109" spans="2:5" ht="17">
+      <c r="B109" s="30"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" ht="17.4" spans="2:5">
-      <c r="B110" s="16"/>
-      <c r="C110" s="17" t="s">
+    <row r="110" spans="2:5" ht="17">
+      <c r="B110" s="30"/>
+      <c r="C110" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="111" ht="17.4" spans="2:5">
-      <c r="B111" s="16"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="22" t="s">
+    <row r="111" spans="2:5" ht="17">
+      <c r="B111" s="30"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" ht="17.4" spans="2:5">
-      <c r="B112" s="16"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18" t="s">
+    <row r="112" spans="2:5" ht="17">
+      <c r="B112" s="30"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E112" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="113" ht="17.4" spans="2:5">
-      <c r="B113" s="16"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="22" t="s">
+    <row r="113" spans="2:5" ht="17">
+      <c r="B113" s="30"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E113" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="114" ht="17.4" spans="2:5">
-      <c r="B114" s="16"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="22" t="s">
+    <row r="114" spans="2:5" ht="17">
+      <c r="B114" s="30"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="E114" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="115" ht="17.4" spans="2:5">
-      <c r="B115" s="16"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="18" t="s">
+    <row r="115" spans="2:5" ht="17">
+      <c r="B115" s="30"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E115" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="116" ht="17.4" spans="2:5">
-      <c r="B116" s="16"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="22" t="s">
+    <row r="116" spans="2:5" ht="17">
+      <c r="B116" s="30"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="117" ht="17.4" spans="2:5">
-      <c r="B117" s="16"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="22" t="s">
+    <row r="117" spans="2:5" ht="17">
+      <c r="B117" s="30"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" ht="17.4" spans="2:5">
-      <c r="B118" s="16"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="22" t="s">
+    <row r="118" spans="2:5" ht="17">
+      <c r="B118" s="30"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="119" ht="17.4" spans="2:5">
-      <c r="B119" s="16"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="22" t="s">
+    <row r="119" spans="2:5" ht="17">
+      <c r="B119" s="30"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="120" ht="17.4" spans="2:5">
-      <c r="B120" s="16"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="18" t="s">
+    <row r="120" spans="2:5" ht="17">
+      <c r="B120" s="30"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="121" ht="17.4" spans="2:5">
-      <c r="B121" s="16"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="22" t="s">
+    <row r="121" spans="2:5" ht="17">
+      <c r="B121" s="30"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="122" ht="17.4" spans="2:5">
-      <c r="B122" s="16"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="22" t="s">
+    <row r="122" spans="2:5" ht="17">
+      <c r="B122" s="30"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" ht="17.4" spans="2:5">
-      <c r="B123" s="16"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="22" t="s">
+    <row r="123" spans="2:5" ht="17">
+      <c r="B123" s="30"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="124" ht="17.4" spans="2:5">
-      <c r="B124" s="16"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="18" t="s">
+    <row r="124" spans="2:5" ht="17">
+      <c r="B124" s="30"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="125" ht="17.4" spans="2:5">
-      <c r="B125" s="16"/>
-      <c r="C125" s="17" t="s">
+    <row r="125" spans="2:5" ht="17">
+      <c r="B125" s="30"/>
+      <c r="C125" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="126" ht="17.4" spans="2:5">
-      <c r="B126" s="16"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="22" t="s">
+    <row r="126" spans="2:5" ht="17">
+      <c r="B126" s="30"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="127" ht="17.4" spans="2:5">
-      <c r="B127" s="16"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="18" t="s">
+    <row r="127" spans="2:5" ht="17">
+      <c r="B127" s="30"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="128" ht="17.4" spans="2:5">
-      <c r="B128" s="16"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="18" t="s">
+    <row r="128" spans="2:5" ht="17">
+      <c r="B128" s="30"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="129" ht="17.4" spans="2:5">
-      <c r="B129" s="16"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="18" t="s">
+    <row r="129" spans="2:5" ht="17">
+      <c r="B129" s="30"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3357,158 +2802,157 @@
     <mergeCell ref="B10:B34"/>
     <mergeCell ref="B35:B54"/>
     <mergeCell ref="B55:B79"/>
-    <mergeCell ref="B80:B104"/>
-    <mergeCell ref="B105:B129"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="C30:C34"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="C42:C49"/>
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C55:C64"/>
     <mergeCell ref="C65:C74"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="B80:B104"/>
+    <mergeCell ref="B105:B129"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C20:C29"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="C110:C124"/>
     <mergeCell ref="C75:C79"/>
     <mergeCell ref="C80:C85"/>
     <mergeCell ref="C86:C100"/>
     <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="C110:C124"/>
-    <mergeCell ref="C125:C129"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E61" r:id="rId2" display="https://www.lintcode.com/problem/number-of-islands/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E68" r:id="rId3" display="https://www.lintcode.com/problem/copy-list-with-random-pointer/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E55" r:id="rId4" display="https://www.lintcode.com/problem/search-a-2d-matrix/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E59" r:id="rId5" display="https://www.lintcode.com/problem/longest-valid-parentheses/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E62" r:id="rId6" display="https://www.lintcode.com/problem/happy-number/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E67" r:id="rId7" display="https://www.lintcode.com/problem/binary-tree-maximum-path-sum/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E69" r:id="rId8" display="https://www.lintcode.com/problem/word-break/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E71" r:id="rId9" display="https://www.lintcode.com/problem/trapping-rain-water/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E72" r:id="rId10" display="https://www.lintcode.com/problem/restore-ip-addresses/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E76" r:id="rId11" display="https://www.lintcode.com/problem/word-ladder-ii/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E66" r:id="rId12" display="https://www.lintcode.com/problem/search-a-2d-matrix-ii/description?_from=ladder&amp;&amp;fromId=137"/>
-    <hyperlink ref="E60" r:id="rId13" display="https://www.lintcode.com/problem/valid-parentheses/description?_from=ladder&amp;&amp;fromId=137"/>
-    <hyperlink ref="E56" r:id="rId14" display="https://www.lintcode.com/problem/two-sum/description?_from=ladder&amp;&amp;fromId=133"/>
-    <hyperlink ref="E70" r:id="rId15" display="https://www.lintcode.com/problem/longest-palindromic-substring/description?_from=ladder&amp;&amp;fromId=133"/>
-    <hyperlink ref="E58" r:id="rId16" display="https://www.lintcode.com/problem/merge-two-sorted-lists/description?_from=ladder&amp;&amp;fromId=126"/>
-    <hyperlink ref="E57" r:id="rId17" display="https://www.lintcode.com/problem/binary-tree-level-order-traversal/description?_from=ladder&amp;&amp;fromId=102"/>
-    <hyperlink ref="E73" r:id="rId18" display="https://www.lintcode.com/problem/find-k-closest-elements/description?_from=ladder&amp;&amp;fromId=133"/>
-    <hyperlink ref="E74" r:id="rId19" display="https://www.lintcode.com/problem/top-k-frequent-words/description?_from=ladder&amp;&amp;fromId=144"/>
-    <hyperlink ref="E64" r:id="rId20" display="https://www.lintcode.com/problem/diameter-of-binary-tree/description?_from=ladder&amp;&amp;fromId=137"/>
-    <hyperlink ref="E78" r:id="rId21" display="https://www.lintcode.com/problem/concatenated-words/description?_from=ladder&amp;&amp;fromId=131"/>
-    <hyperlink ref="E65" r:id="rId22" display="https://www.lintcode.com/problem/serialize-and-deserialize-binary-tree/description?_from=ladder&amp;&amp;fromId=102"/>
-    <hyperlink ref="E63" r:id="rId23" display="https://www.lintcode.com/problem/subtree-with-maximum-average/description?_from=ladder&amp;&amp;fromId=78"/>
-    <hyperlink ref="E75" r:id="rId24" display="https://www.lintcode.com/problem/string-to-integer-atoi/description"/>
-    <hyperlink ref="E77" r:id="rId25" display="https://www.lintcode.com/problem/lru-cache/description"/>
-    <hyperlink ref="E79" r:id="rId26" display="https://www.lintcode.com/problem/split-array-largest-sum/description"/>
-    <hyperlink ref="E101" r:id="rId27" display="https://www.lintcode.com/problem/binary-search-tree-iterator/description"/>
-    <hyperlink ref="E102" r:id="rId28" display="https://www.lintcode.com/problem/sliding-window-maximum/description"/>
-    <hyperlink ref="E103" r:id="rId29" display="https://www.lintcode.com/problem/expression-add-operators/description"/>
-    <hyperlink ref="E104" r:id="rId30" display="https://www.lintcode.com/problem/remove-invalid-parentheses/description"/>
-    <hyperlink ref="E80" r:id="rId31" display="https://www.lintcode.com/problem/binary-tree-inorder-traversal/description"/>
-    <hyperlink ref="E82" r:id="rId32" display="https://www.lintcode.com/problem/nested-list-weight-sum/description"/>
-    <hyperlink ref="E83" r:id="rId33" display="https://www.lintcode.com/problem/palindromic-substrings/description"/>
-    <hyperlink ref="E84" r:id="rId34" display="https://www.lintcode.com/problem/subarray-sum-equals-k/description"/>
-    <hyperlink ref="E81" r:id="rId35" display="https://www.lintcode.com/problem/add-binary/description"/>
-    <hyperlink ref="E85" r:id="rId36" display="https://www.lintcode.com/problem/monotonic-array/description"/>
-    <hyperlink ref="E86" r:id="rId37" display="https://www.lintcode.com/problem/subsets/description"/>
-    <hyperlink ref="E88" r:id="rId38" display="https://www.lintcode.com/problem/first-bad-version/description"/>
-    <hyperlink ref="E89" r:id="rId39" display="https://www.lintcode.com/problem/validate-binary-search-tree/description"/>
-    <hyperlink ref="E95" r:id="rId40" display="https://www.lintcode.com/problem/task-scheduler/description"/>
-    <hyperlink ref="E97" r:id="rId41" display="https://www.lintcode.com/problem/total-hamming-distance/description"/>
-    <hyperlink ref="E87" r:id="rId42" display="https://www.lintcode.com/problem/minimum-window-substring/description"/>
-    <hyperlink ref="E90" r:id="rId43" display="https://www.lintcode.com/problem/word-search/description"/>
-    <hyperlink ref="E91" r:id="rId44" display="https://www.lintcode.com/problem/next-permutation-ii/description"/>
-    <hyperlink ref="E92" r:id="rId45" display="https://www.lintcode.com/problem/simplify-path/description"/>
-    <hyperlink ref="E93" r:id="rId46" display="https://www.lintcode.com/problem/binary-tree-right-side-view/description"/>
-    <hyperlink ref="E94" r:id="rId47" display="https://www.lintcode.com/problem/meeting-rooms-ii/description"/>
-    <hyperlink ref="E96" r:id="rId48" display="https://www.lintcode.com/problem/reorganize-string/description"/>
-    <hyperlink ref="E98" r:id="rId49" display="https://www.lintcode.com/problem/friends-of-appropriate-ages/description"/>
-    <hyperlink ref="E99" r:id="rId50" display="https://www.lintcode.com/problem/all-nodes-distance-k-in-binary-tree/description"/>
-    <hyperlink ref="E100" r:id="rId51" display="https://www.lintcode.com/problem/range-sum-of-bst/description"/>
-    <hyperlink ref="E10" r:id="rId52" display="https://www.lintcode.com/problem/implement-strstr/description"/>
-    <hyperlink ref="E11" r:id="rId53" display="https://www.lintcode.com/problem/two-sum/description"/>
-    <hyperlink ref="E12" r:id="rId54" display="https://www.lintcode.com/problem/merge-sorted-array/description"/>
-    <hyperlink ref="E13" r:id="rId55" display="https://www.lintcode.com/problem/remove-duplicates-from-sorted-array/description"/>
-    <hyperlink ref="E14" r:id="rId56" display="https://www.lintcode.com/problem/sqrtx/description"/>
-    <hyperlink ref="E15" r:id="rId57" display="https://www.lintcode.com/problem/populating-next-right-pointers-in-each-node-ii/description"/>
-    <hyperlink ref="E16" r:id="rId35" display="https://www.lintcode.com/problem/add-binary/description"/>
-    <hyperlink ref="E17" r:id="rId58" display="https://www.lintcode.com/problem/valid-parentheses/description"/>
-    <hyperlink ref="E18" r:id="rId59" display="https://www.lintcode.com/problem/number-of-islands/description"/>
-    <hyperlink ref="E19" r:id="rId60" display="https://www.lintcode.com/problem/excel-sheet-column-title/description"/>
-    <hyperlink ref="E20" r:id="rId61" display="https://www.lintcode.com/problem/insert-interval/description"/>
-    <hyperlink ref="E21" r:id="rId62" display="https://www.lintcode.com/problem/search-in-rotated-sorted-array/description"/>
-    <hyperlink ref="E22" r:id="rId63" display="https://www.lintcode.com/problem/merge-k-sorted-lists/description"/>
-    <hyperlink ref="E23" r:id="rId64" display="https://www.lintcode.com/problem/word-break/description"/>
-    <hyperlink ref="E24" r:id="rId65" display="https://www.lintcode.com/problem/best-time-to-buy-and-sell-stock/description"/>
-    <hyperlink ref="E25" r:id="rId66" display="https://www.lintcode.com/problem/anagrams/description"/>
-    <hyperlink ref="E26" r:id="rId67" display="https://www.lintcode.com/problem/valid-palindrome/description"/>
-    <hyperlink ref="E27" r:id="rId68" display="https://www.lintcode.com/problem/roman-to-integer/description"/>
-    <hyperlink ref="E28" r:id="rId69" display="https://www.lintcode.com/problem/letter-combinations-of-a-phone-number/description"/>
-    <hyperlink ref="E29" r:id="rId70" display="https://www.lintcode.com/problem/contiguous-array/description"/>
-    <hyperlink ref="E30" r:id="rId71" display="https://www.lintcode.com/problem/word-ladder/description"/>
-    <hyperlink ref="E31" r:id="rId25" display="https://www.lintcode.com/problem/lru-cache/description"/>
-    <hyperlink ref="E32" r:id="rId72" display="https://www.lintcode.com/problem/regular-expression-matching/description"/>
-    <hyperlink ref="E33" r:id="rId73" display="https://www.lintcode.com/problem/reverse-nodes-in-k-group/description"/>
-    <hyperlink ref="E34" r:id="rId74" display="https://www.lintcode.com/problem/maximal-rectangle/description"/>
-    <hyperlink ref="E105" r:id="rId75" display="https://www.lintcode.com/problem/maximum-subarray/description"/>
-    <hyperlink ref="E106" r:id="rId53" display="https://www.lintcode.com/problem/two-sum/description"/>
-    <hyperlink ref="E107" r:id="rId76" display="https://www.lintcode.com/problem/binary-tree-level-order-traversal/description"/>
-    <hyperlink ref="E108" r:id="rId77" display="https://www.lintcode.com/problem/merge-two-sorted-lists/description"/>
-    <hyperlink ref="E109" r:id="rId58" display="https://www.lintcode.com/problem/valid-parentheses/description"/>
-    <hyperlink ref="E110" r:id="rId78" display="https://www.lintcode.com/problem/permutations/description"/>
-    <hyperlink ref="E111" r:id="rId61" display="https://www.lintcode.com/problem/insert-interval/description"/>
-    <hyperlink ref="E112" r:id="rId63" display="https://www.lintcode.com/problem/merge-k-sorted-lists/description"/>
-    <hyperlink ref="E113" r:id="rId79" display="https://www.lintcode.com/problem/max-points-on-a-line/description"/>
-    <hyperlink ref="E114" r:id="rId80" display="https://www.lintcode.com/problem/maximum-product-subarray/description"/>
-    <hyperlink ref="E115" r:id="rId81" display="https://www.lintcode.com/problem/house-robber/description"/>
-    <hyperlink ref="E116" r:id="rId67" display="https://www.lintcode.com/problem/valid-palindrome/description"/>
-    <hyperlink ref="E117" r:id="rId82" display="https://www.lintcode.com/problem/evaluate-reverse-polish-notation/description"/>
-    <hyperlink ref="E121" r:id="rId83" display="https://www.lintcode.com/problem/shortest-word-distance-iii/description"/>
-    <hyperlink ref="E118" r:id="rId84" display="https://www.lintcode.com/problem/lowest-common-ancestor-iii/description"/>
-    <hyperlink ref="E119" r:id="rId85" display="https://www.lintcode.com/problem/k-closest-points/description"/>
-    <hyperlink ref="E120" r:id="rId86" display="https://www.lintcode.com/problem/factorization/description"/>
-    <hyperlink ref="E122" r:id="rId87" display="https://www.lintcode.com/problem/tuple-multiply/description"/>
-    <hyperlink ref="E123" r:id="rId88" display="https://www.lintcode.com/problem/unlock-problem/description"/>
-    <hyperlink ref="E124" r:id="rId89" display="https://www.lintcode.com/problem/cartesian-product/description"/>
-    <hyperlink ref="E125" r:id="rId27" display="https://www.lintcode.com/problem/binary-search-tree-iterator/description"/>
-    <hyperlink ref="E126" r:id="rId90" display="https://www.lintcode.com/problem/count-different-palindromic-subsequences/description"/>
-    <hyperlink ref="E127" r:id="rId91" display="https://www.lintcode.com/problem/max-stack/description"/>
-    <hyperlink ref="E128" r:id="rId92" display="https://www.lintcode.com/problem/can-i-win/description"/>
-    <hyperlink ref="E129" r:id="rId93" display="https://www.lintcode.com/problem/text-justification/description"/>
-    <hyperlink ref="E36" r:id="rId94" display="https://www.lintcode.com/problem/first-position-unique-character/description"/>
-    <hyperlink ref="E39" r:id="rId95" display="https://www.lintcode.com/problem/lowest-common-ancestor-of-a-binary-search-tree/description"/>
-    <hyperlink ref="E38" r:id="rId96" display="https://www.lintcode.com/problem/third-maximum-number/description"/>
-    <hyperlink ref="E37" r:id="rId97" display="https://www.lintcode.com/problem/remove-dights/description"/>
-    <hyperlink ref="E40" r:id="rId98" display="https://www.lintcode.com/problem/concatenated-string-with-uncommon-characters-of-two-strings/description"/>
-    <hyperlink ref="E48" r:id="rId99" display="https://www.lintcode.com/problem/reverse-words-in-a-string-ii/description"/>
-    <hyperlink ref="E47" r:id="rId100" display="https://www.lintcode.com/problem/inorder-predecessor-in-bst/description"/>
-    <hyperlink ref="E44" r:id="rId101" display="https://www.lintcode.com/problem/add-two-numbers-ii/description"/>
-    <hyperlink ref="E49" r:id="rId102" display="https://www.lintcode.com/problem/game-of-life/description"/>
-    <hyperlink ref="E35" r:id="rId103" display="https://www.lintcode.com/problem/merge-intervals/description"/>
-    <hyperlink ref="E41" r:id="rId104" display="https://www.lintcode.com/problem/count-primes/description"/>
-    <hyperlink ref="E43" r:id="rId105" display="https://www.lintcode.com/problem/linked-list-cycle/description"/>
-    <hyperlink ref="E45" r:id="rId106" display="http://www.qhnews.com/cysd/system/2017/08/22/012392015.shtml"/>
-    <hyperlink ref="E46" r:id="rId107" display="https://www.lintcode.com/problem/decode-ways/description"/>
-    <hyperlink ref="E42" r:id="rId62" display="https://www.lintcode.com/problem/search-in-rotated-sorted-array/description"/>
-    <hyperlink ref="E51" r:id="rId108" display="https://www.lintcode.com/problem/linked-list-cycle-ii/description"/>
-    <hyperlink ref="E52" r:id="rId73" display="https://www.lintcode.com/problem/reverse-nodes-in-k-group/description"/>
-    <hyperlink ref="E50" r:id="rId27" display="https://www.lintcode.com/problem/binary-search-tree-iterator/description"/>
-    <hyperlink ref="E54" r:id="rId109" display="https://www.lintcode.com/problem/the-skyline-problem/description"/>
-    <hyperlink ref="E53" r:id="rId110" display="https://www.lintcode.com/problem/basic-calculator-iii/description"/>
-    <hyperlink ref="E3" r:id="rId111" display="https://www.lintcode.com/problem/squares-of-a-sorted-array/description?_from=ladder&amp;&amp;fromId=154"/>
-    <hyperlink ref="E4" r:id="rId112" display="https://www.lintcode.com/problem/meeting-rooms/description?_from=ladder&amp;&amp;fromId=154"/>
-    <hyperlink ref="E5" r:id="rId113" display="https://www.lintcode.com/problem/meeting-room-iii/description?_from=ladder&amp;&amp;fromId=154"/>
-    <hyperlink ref="E6" r:id="rId114" display="https://www.lintcode.com/problem/implement-rand10-using-rand7/description?_from=ladder&amp;&amp;fromId=154"/>
-    <hyperlink ref="E7" r:id="rId115" display="https://www.lintcode.com/problem/the-minium-distance/description?_from=ladder&amp;&amp;fromId=154"/>
-    <hyperlink ref="E8" r:id="rId116" display="https://www.lintcode.com/problem/meeting-rooms-ii/description?_from=ladder&amp;&amp;fromId=154"/>
-    <hyperlink ref="E9" r:id="rId117" display="https://www.lintcode.com/problem/the-kth-subarray/description?_from=ladder&amp;&amp;fromId=154"/>
+    <hyperlink ref="E61" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E68" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E55" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E59" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E62" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E67" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E69" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E71" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E72" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E76" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E66" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E60" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E56" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E70" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E58" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E57" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E73" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E74" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E64" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E78" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E65" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E63" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E75" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E77" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E79" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E101" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E102" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E103" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E104" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E80" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E82" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E83" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E84" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E81" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E85" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E86" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E88" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E89" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E95" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E97" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E87" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E90" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E91" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E92" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E93" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E94" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E96" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E98" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E99" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E100" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E10" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E11" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E12" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E13" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E14" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E15" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E16" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E17" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E18" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E19" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E20" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E21" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E22" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E23" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E24" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E25" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E26" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E27" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E28" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E29" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E30" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E31" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E32" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E33" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E34" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E105" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E106" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E107" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E108" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E109" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E110" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E111" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E112" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E113" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E114" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E115" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E116" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E117" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E121" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E118" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E119" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E120" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E122" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E123" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E124" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E125" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E126" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E127" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E128" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E129" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E36" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E39" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E38" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E37" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E40" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E48" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E47" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E44" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E49" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E35" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E41" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E43" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E45" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E46" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E42" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E51" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E52" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E50" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E54" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E53" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E3" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E4" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E5" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E6" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E7" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E8" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E9" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId128"/>
 </worksheet>
 </file>